--- a/2. Báo cáo - bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Danh Sách IMEI nhập kho/19.Lô 1-2024/50TB_TG102LE-4G_ESIM_151124.xlsx
+++ b/2. Báo cáo - bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Danh Sách IMEI nhập kho/19.Lô 1-2024/50TB_TG102LE-4G_ESIM_151124.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BH VNET\VNET NEW\VNET\2. Báo cáo - bàn giao\1.BaoCao\Thông tin lưu trữ\SanXuat\Danh Sách IMEI nhập kho\19.Lô 1-2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D57334-C015-4886-B7CC-97C42A0C91BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4CAA82-C443-483C-B057-EEA91D48F7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{BB8BB20A-DADB-4502-9219-8545458BC20B}"/>
   </bookViews>
@@ -390,9 +390,6 @@
     <t>007785070552560</t>
   </si>
   <si>
-    <t>007785070549376</t>
-  </si>
-  <si>
     <t>007785070582450</t>
   </si>
   <si>
@@ -438,9 +435,6 @@
     <t>007785070554863</t>
   </si>
   <si>
-    <t>007785070583276</t>
-  </si>
-  <si>
     <t>007785070564391</t>
   </si>
   <si>
@@ -484,6 +478,12 @@
   </si>
   <si>
     <t>007785070554343</t>
+  </si>
+  <si>
+    <t>007785070552537</t>
+  </si>
+  <si>
+    <t>007785070583490</t>
   </si>
 </sst>
 </file>
@@ -899,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB308DE6-DEE7-4D5A-A59E-C191F88BD84E}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C51"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,7 +1125,7 @@
         <v>40</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1136,7 +1136,7 @@
         <v>42</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1147,7 +1147,7 @@
         <v>44</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1158,7 +1158,7 @@
         <v>46</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1169,7 +1169,7 @@
         <v>48</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1180,7 +1180,7 @@
         <v>50</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1191,7 +1191,7 @@
         <v>52</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1202,7 +1202,7 @@
         <v>54</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1213,7 +1213,7 @@
         <v>56</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1224,7 +1224,7 @@
         <v>58</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1235,7 +1235,7 @@
         <v>60</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1246,7 +1246,7 @@
         <v>62</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1257,7 +1257,7 @@
         <v>64</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1268,7 +1268,7 @@
         <v>66</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1279,7 +1279,7 @@
         <v>68</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1290,7 +1290,7 @@
         <v>70</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1301,7 +1301,7 @@
         <v>72</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1312,7 +1312,7 @@
         <v>74</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1323,7 +1323,7 @@
         <v>76</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1334,7 +1334,7 @@
         <v>78</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1345,7 +1345,7 @@
         <v>80</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1356,7 +1356,7 @@
         <v>82</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1367,7 +1367,7 @@
         <v>84</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1378,7 +1378,7 @@
         <v>86</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1389,7 +1389,7 @@
         <v>88</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1400,7 +1400,7 @@
         <v>90</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1411,7 +1411,7 @@
         <v>92</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1422,7 +1422,7 @@
         <v>94</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1433,7 +1433,7 @@
         <v>96</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1444,7 +1444,7 @@
         <v>98</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1455,7 +1455,7 @@
         <v>100</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -1466,7 +1466,7 @@
         <v>102</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
